--- a/活动中心push分层平台搭建.xlsx
+++ b/活动中心push分层平台搭建.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_yuhzeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ther\Desktop\qqqmusic-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092BFC82-C983-4F40-8D88-7759B8225EA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D1C6FF-B30B-433B-A1DC-BED7748690D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$L$43</definedName>
@@ -24,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -173,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="98">
   <si>
     <t>用例目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,6 +446,206 @@
 号码包外
 5，13</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全量用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日新增新用户 push通知
+其余不push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向类型：用户分层
+条件：等于
+定向内容：200001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向类型：用户分层
+条件：等于
+定向内容：200002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增后2~7天
+3用户 push通知
+其余不push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向类型：用户分层
+条件：等于
+定向内容：200003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向类型：用户分层
+条件：等于
+定向内容：200004</t>
+  </si>
+  <si>
+    <t>定向类型：用户分层
+条件：等于
+定向内容：200005</t>
+  </si>
+  <si>
+    <t>定向类型：用户分层
+条件：等于
+定向内容：200006</t>
+  </si>
+  <si>
+    <t>定向类型：用户分层
+条件：等于
+定向内容：200007</t>
+  </si>
+  <si>
+    <t>定向类型：用户分层
+条件：等于
+定向内容：200008</t>
+  </si>
+  <si>
+    <t>定向类型：用户分层
+条件：等于
+定向内容：200009</t>
+  </si>
+  <si>
+    <t>定向类型：用户分层
+条件：等于
+定向内容：200010</t>
+  </si>
+  <si>
+    <t>超31天未登录 当日登录回流（间隔31天登录）
+2push通知
+其余不push</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超31天未登录  回流第2~7天
+4push通知
+其余不push</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>近31天【1-5】天登录
+5push通知
+其余不push</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>近31天【6-15】天登录
+6push通知
+其余不push</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>近31天【16-25】天登录
+7push通知
+其余不push</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>近31天【26-31】天登录
+8push通知
+其余不push</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>近31天没活跃, 但在31~186天前存在活跃记录
+9push通知
+其余不push</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过186天未登录
+10push通知
+其余不push</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户分层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或与非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 体验卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>或</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>与</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WX推送成功（范围内）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ推送成功（范围内）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WX推送失败（非范围内）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ推送失败（非范围内）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>体验卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>或非</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>与或</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日新增新用户
+1
+and
+超过186天未登录
+10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>与或非</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超31天未登录  回流第2~7天
+4
+and
+近31天【1-5】天登录
+5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非与或</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -627,17 +826,143 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1014,14 +1339,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.6640625" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="8.5546875" customWidth="1"/>
@@ -1234,87 +1560,202 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+    <row r="10" spans="1:12" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
+      <c r="G10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
+      <c r="G11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
+      <c r="G12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
+      <c r="G13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
+      <c r="G14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="100.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="G16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="G17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+    <row r="19" spans="1:10" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="G19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1369,50 +1810,54 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="11"/>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1422,7 +1867,7 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -1485,24 +1930,64 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K107:L65536 K1:L1">
-    <cfRule type="cellIs" dxfId="5" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="101" stopIfTrue="1" operator="equal">
       <formula>"T"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="94" stopIfTrue="1" operator="containsText" text="T">
+    <cfRule type="containsText" dxfId="22" priority="102" stopIfTrue="1" operator="containsText" text="T">
       <formula>NOT(ISERROR(SEARCH("T",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K107:N65536 K1:N1">
-    <cfRule type="containsText" dxfId="3" priority="92" stopIfTrue="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="21" priority="100" stopIfTrue="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J65536">
-    <cfRule type="containsText" dxfId="2" priority="1" stopIfTrue="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="20" priority="9" stopIfTrue="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" stopIfTrue="1" operator="containsText" text="T">
+    <cfRule type="containsText" dxfId="19" priority="10" stopIfTrue="1" operator="containsText" text="T">
       <formula>NOT(ISERROR(SEARCH("T",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",I12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",I13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",I14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",I15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",I16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",I17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",I18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1513,7 +1998,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1037" r:id="rId4" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId5">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -1541,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6F351E-79D6-4B6A-A617-F9C9371948DE}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1567,72 +2052,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1640,28 +2125,28 @@
       <c r="A3" s="14">
         <v>2274466264</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="P4" s="16" t="s">
+      <c r="M4" s="15"/>
+      <c r="P4" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1669,19 +2154,19 @@
       <c r="A5" s="14">
         <v>709000121</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="E5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>1027537612</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1689,7 +2174,7 @@
       <c r="A7" s="14">
         <v>1912761812</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1697,7 +2182,7 @@
       <c r="A8" s="14">
         <v>2088123341</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1705,7 +2190,7 @@
       <c r="A9" s="14">
         <v>2695743312</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1713,7 +2198,7 @@
       <c r="A10" s="14">
         <v>2814216220</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1721,7 +2206,7 @@
       <c r="A11" s="14">
         <v>2821224220</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1729,16 +2214,22 @@
       <c r="A12" s="14">
         <v>3192300341</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="15" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <f ca="1">A15:A17</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +2240,297 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B1:P1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="T">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="T">
       <formula>NOT(ISERROR(SEARCH("T",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF0580D-B4CB-41CC-80EF-E2AC58F43320}">
+  <dimension ref="A4:T23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B7:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="5" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="18" max="18" width="17.5546875" customWidth="1"/>
+    <col min="19" max="19" width="21.77734375" customWidth="1"/>
+    <col min="20" max="20" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="144" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="F6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A23:K23">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",A23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",F6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",I6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",J6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",K6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",N6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",O6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",P6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",R6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="T">
+      <formula>NOT(ISERROR(SEARCH("T",S6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>